--- a/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_3_resultat.xlsx
+++ b/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_3_resultat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cote d'Ivoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D88F55-2315-4E81-B0E5-42007C39B842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3F1DE7-6298-4339-9FFE-7B2157BDE291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="186">
   <si>
     <t>type</t>
   </si>
@@ -577,6 +577,9 @@
   </si>
   <si>
     <t>8. Observation</t>
+  </si>
+  <si>
+    <t>M.BORLA DIOULASSO</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1446,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A113" sqref="A113:XFD115"/>
+      <selection pane="bottomLeft" activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2304,13 +2307,13 @@
         <v>29</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>100</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="18" customFormat="1">
@@ -2990,7 +2993,7 @@
         <v>106</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119" spans="1:7" s="18" customFormat="1">
@@ -3359,7 +3362,7 @@
         <v>88</v>
       </c>
       <c r="G144" s="18" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="1:7" s="18" customFormat="1">

--- a/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_3_resultat.xlsx
+++ b/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_3_resultat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cote d'Ivoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9682F038-7973-4CC7-8288-B3E31A4CFD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3C688F-6F04-48DC-B079-3D81949E0F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="172">
   <si>
     <t>type</t>
   </si>
@@ -363,9 +363,6 @@
     <t>select_one results</t>
   </si>
   <si>
-    <t>d_barcodeid</t>
-  </si>
-  <si>
     <t>d_results</t>
   </si>
   <si>
@@ -507,9 +504,6 @@
     <t>d_village_1ere_ligne</t>
   </si>
   <si>
-    <t>8. Code du participant</t>
-  </si>
-  <si>
     <t>9. Résultats du test</t>
   </si>
   <si>
@@ -520,13 +514,37 @@
   </si>
   <si>
     <t>civ_oncho_ia_202309_3_resultat_v2</t>
+  </si>
+  <si>
+    <t>M.BORLA DIOULASSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regex(.,'^(0[1-9][0-9]|100|0[0-9][1-9])$') </t>
+  </si>
+  <si>
+    <t>Le code doit être un nombre à trois chiffres entre 001 et 100</t>
+  </si>
+  <si>
+    <t>d_numero</t>
+  </si>
+  <si>
+    <t>d_code_id</t>
+  </si>
+  <si>
+    <t>concat('0_', ${d_district_id}, '_', ${d_site_id}, '_', ${d_numero})</t>
+  </si>
+  <si>
+    <t>8.a. Entrer le numéro du participant</t>
+  </si>
+  <si>
+    <t>8.b. Code du test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -552,20 +570,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,14 +589,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -608,26 +613,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -640,51 +630,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -971,11 +946,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1115,13 +1090,13 @@
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1">
       <c r="A5" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>154</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>155</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="11"/>
@@ -1142,10 +1117,10 @@
         <v>104</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="11"/>
@@ -1169,7 +1144,7 @@
         <v>98</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="11"/>
@@ -1191,7 +1166,7 @@
         <v>107</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="11"/>
@@ -1206,51 +1181,65 @@
       <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:14" s="6" customFormat="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="A9" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:14" s="6" customFormat="1">
-      <c r="A10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="16" t="s">
+      <c r="A10" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:14" s="6" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="11"/>
@@ -1272,12 +1261,12 @@
         <v>99</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="22"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="8"/>
       <c r="I12" s="14"/>
       <c r="J12" s="9"/>
@@ -1295,7 +1284,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="22"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="9"/>
@@ -1313,7 +1302,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="22"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="9"/>
@@ -1327,7 +1316,7 @@
       <c r="D15" s="12"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="22"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="9"/>
@@ -1361,7 +1350,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:G1"/>
+      <selection pane="bottomLeft" activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1630,10 +1619,10 @@
         <v>26</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="7" customFormat="1">
@@ -1656,10 +1645,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>41</v>
@@ -1740,10 +1729,10 @@
         <v>27</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>45</v>
@@ -1802,7 +1791,7 @@
         <v>56</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="7" customFormat="1">
@@ -1840,41 +1829,41 @@
     </row>
     <row r="41" spans="1:5" s="7" customFormat="1">
       <c r="A41" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="C41" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="7" customFormat="1">
       <c r="A42" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="7" customFormat="1">
       <c r="A43" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>63</v>
@@ -1882,13 +1871,13 @@
     </row>
     <row r="44" spans="1:5" s="7" customFormat="1">
       <c r="A44" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>50</v>
@@ -1896,13 +1885,13 @@
     </row>
     <row r="45" spans="1:5" s="7" customFormat="1">
       <c r="A45" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>51</v>
@@ -1910,13 +1899,13 @@
     </row>
     <row r="46" spans="1:5" s="7" customFormat="1">
       <c r="A46" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>52</v>
@@ -1924,13 +1913,13 @@
     </row>
     <row r="47" spans="1:5" s="7" customFormat="1">
       <c r="A47" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>53</v>
@@ -1938,27 +1927,27 @@
     </row>
     <row r="48" spans="1:5" s="7" customFormat="1">
       <c r="A48" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="7" customFormat="1">
       <c r="A49" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>54</v>
@@ -1966,13 +1955,13 @@
     </row>
     <row r="50" spans="1:5" s="7" customFormat="1">
       <c r="A50" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>55</v>
@@ -1980,13 +1969,13 @@
     </row>
     <row r="51" spans="1:5" s="7" customFormat="1">
       <c r="A51" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>64</v>
@@ -1994,13 +1983,13 @@
     </row>
     <row r="52" spans="1:5" s="7" customFormat="1">
       <c r="A52" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>56</v>
@@ -2008,13 +1997,13 @@
     </row>
     <row r="53" spans="1:5" s="7" customFormat="1">
       <c r="A53" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>65</v>
@@ -2022,13 +2011,13 @@
     </row>
     <row r="54" spans="1:5" s="7" customFormat="1">
       <c r="A54" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>66</v>
@@ -2096,7 +2085,7 @@
         <v>28</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>72</v>
@@ -2214,7 +2203,7 @@
         <v>86</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="7" customFormat="1">
@@ -2228,7 +2217,7 @@
         <v>87</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="7" customFormat="1">
@@ -2242,7 +2231,7 @@
         <v>73</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="7" customFormat="1">
@@ -2256,7 +2245,7 @@
         <v>88</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="7" customFormat="1">
@@ -2284,7 +2273,7 @@
         <v>83</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="7" customFormat="1">
@@ -2298,7 +2287,7 @@
         <v>91</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="7" customFormat="1">
@@ -2391,10 +2380,10 @@
         <v>92</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="7" customFormat="1">
@@ -2402,10 +2391,10 @@
         <v>92</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="7" customFormat="1">
@@ -2413,10 +2402,10 @@
         <v>92</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="7" customFormat="1">
@@ -2424,10 +2413,10 @@
         <v>92</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="7" customFormat="1">
@@ -2435,10 +2424,10 @@
         <v>92</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="7" customFormat="1">
@@ -2446,10 +2435,10 @@
         <v>92</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="7" customFormat="1">
@@ -2457,10 +2446,10 @@
         <v>92</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="7" customFormat="1">
@@ -2468,10 +2457,10 @@
         <v>92</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="7" customFormat="1">
@@ -2479,10 +2468,10 @@
         <v>92</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="7" customFormat="1">
@@ -2490,10 +2479,10 @@
         <v>92</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="7" customFormat="1">
@@ -2501,10 +2490,10 @@
         <v>92</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="7" customFormat="1">
@@ -2512,10 +2501,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="7" customFormat="1">
@@ -2523,10 +2512,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="7" customFormat="1">
@@ -2534,10 +2523,10 @@
         <v>92</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="7" customFormat="1">
@@ -2545,10 +2534,10 @@
         <v>92</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="7" customFormat="1">
@@ -2556,10 +2545,10 @@
         <v>92</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="7" customFormat="1">
@@ -2567,10 +2556,10 @@
         <v>92</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="7" customFormat="1">
@@ -2578,10 +2567,10 @@
         <v>92</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="7" customFormat="1">
@@ -2589,10 +2578,10 @@
         <v>92</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="7" customFormat="1">
@@ -2600,10 +2589,10 @@
         <v>92</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="7" customFormat="1"/>
@@ -2685,7 +2674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2712,10 +2701,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>62</v>

--- a/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_3_resultat.xlsx
+++ b/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_3_resultat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cote d'Ivoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3C688F-6F04-48DC-B079-3D81949E0F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FF6AB6-160D-4D3C-8D44-F2257D21F453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="172">
   <si>
     <t>type</t>
   </si>
@@ -510,12 +510,6 @@
     <t>10. Observation</t>
   </si>
   <si>
-    <t>(Sept 2023) ONCHO Pre Stop - 3. Résultat V2</t>
-  </si>
-  <si>
-    <t>civ_oncho_ia_202309_3_resultat_v2</t>
-  </si>
-  <si>
     <t>M.BORLA DIOULASSO</t>
   </si>
   <si>
@@ -538,6 +532,12 @@
   </si>
   <si>
     <t>8.b. Code du test</t>
+  </si>
+  <si>
+    <t>(Sept 2023) ONCHO Pre Stop - 3. Résultat V3</t>
+  </si>
+  <si>
+    <t>civ_oncho_ia_202309_3_resultat_v3</t>
   </si>
 </sst>
 </file>
@@ -950,7 +950,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1128,9 +1128,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11" t="s">
         <v>97</v>
@@ -1185,18 +1183,18 @@
         <v>106</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -1211,10 +1209,10 @@
         <v>106</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="15"/>
@@ -1222,7 +1220,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
@@ -1346,11 +1344,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1799,13 +1797,13 @@
         <v>27</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="7" customFormat="1">
@@ -1813,46 +1811,46 @@
         <v>27</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="41" spans="1:5" s="7" customFormat="1">
-      <c r="A41" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>119</v>
-      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:5" s="7" customFormat="1">
       <c r="A42" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="7" customFormat="1">
@@ -1860,13 +1858,13 @@
         <v>117</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="7" customFormat="1">
@@ -1874,13 +1872,13 @@
         <v>117</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="7" customFormat="1">
@@ -1888,13 +1886,13 @@
         <v>117</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="7" customFormat="1">
@@ -1902,13 +1900,13 @@
         <v>117</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="7" customFormat="1">
@@ -1916,13 +1914,13 @@
         <v>117</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="7" customFormat="1">
@@ -1930,13 +1928,13 @@
         <v>117</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="7" customFormat="1">
@@ -1944,13 +1942,13 @@
         <v>117</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="7" customFormat="1">
@@ -1958,13 +1956,13 @@
         <v>117</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="7" customFormat="1">
@@ -1972,13 +1970,13 @@
         <v>117</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="7" customFormat="1">
@@ -1986,13 +1984,13 @@
         <v>117</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="7" customFormat="1">
@@ -2000,13 +1998,13 @@
         <v>117</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="7" customFormat="1">
@@ -2014,42 +2012,42 @@
         <v>117</v>
       </c>
       <c r="B54" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="7" customFormat="1">
+      <c r="A55" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E55" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="7" customFormat="1"/>
-    <row r="56" spans="1:5" s="7" customFormat="1">
-      <c r="A56" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
+    <row r="56" spans="1:5" s="7" customFormat="1"/>
     <row r="57" spans="1:5" s="7" customFormat="1">
       <c r="A57" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="7" customFormat="1">
@@ -2057,13 +2055,13 @@
         <v>28</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="7" customFormat="1">
@@ -2071,10 +2069,10 @@
         <v>28</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>50</v>
@@ -2085,13 +2083,13 @@
         <v>28</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="7" customFormat="1">
@@ -2099,10 +2097,10 @@
         <v>28</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>52</v>
@@ -2113,13 +2111,13 @@
         <v>28</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="7" customFormat="1">
@@ -2127,13 +2125,13 @@
         <v>28</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="7" customFormat="1">
@@ -2141,10 +2139,10 @@
         <v>28</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>65</v>
@@ -2155,10 +2153,10 @@
         <v>28</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>65</v>
@@ -2169,13 +2167,13 @@
         <v>28</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="7" customFormat="1">
@@ -2183,10 +2181,10 @@
         <v>28</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>64</v>
@@ -2197,13 +2195,13 @@
         <v>28</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="7" customFormat="1">
@@ -2211,10 +2209,10 @@
         <v>28</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>115</v>
@@ -2225,10 +2223,10 @@
         <v>28</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>115</v>
@@ -2239,10 +2237,10 @@
         <v>28</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>115</v>
@@ -2253,13 +2251,13 @@
         <v>28</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="7" customFormat="1">
@@ -2267,13 +2265,13 @@
         <v>28</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="7" customFormat="1">
@@ -2281,10 +2279,10 @@
         <v>28</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>116</v>
@@ -2295,13 +2293,13 @@
         <v>28</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="7" customFormat="1">
@@ -2309,10 +2307,10 @@
         <v>28</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>54</v>
@@ -2323,13 +2321,13 @@
         <v>28</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="7" customFormat="1">
@@ -2337,13 +2335,13 @@
         <v>28</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="7" customFormat="1">
@@ -2351,10 +2349,10 @@
         <v>28</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>56</v>
@@ -2365,270 +2363,283 @@
         <v>28</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="7" customFormat="1"/>
-    <row r="82" spans="1:3" s="7" customFormat="1">
-      <c r="A82" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" s="7" customFormat="1">
+    <row r="81" spans="1:5" s="7" customFormat="1">
+      <c r="A81" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="7" customFormat="1"/>
+    <row r="83" spans="1:5" s="7" customFormat="1">
       <c r="A83" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" s="7" customFormat="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="7" customFormat="1">
       <c r="A84" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" s="7" customFormat="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="7" customFormat="1">
       <c r="A85" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" s="7" customFormat="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="7" customFormat="1">
       <c r="A86" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" s="7" customFormat="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="7" customFormat="1">
       <c r="A87" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" s="7" customFormat="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="7" customFormat="1">
       <c r="A88" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" s="7" customFormat="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="7" customFormat="1">
       <c r="A89" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" s="7" customFormat="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="7" customFormat="1">
       <c r="A90" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" s="7" customFormat="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="7" customFormat="1">
       <c r="A91" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" s="7" customFormat="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="7" customFormat="1">
       <c r="A92" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" s="7" customFormat="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="7" customFormat="1">
       <c r="A93" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" s="7" customFormat="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="7" customFormat="1">
       <c r="A94" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" s="7" customFormat="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="7" customFormat="1">
       <c r="A95" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" s="7" customFormat="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="7" customFormat="1">
       <c r="A96" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" s="7" customFormat="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="7" customFormat="1">
       <c r="A97" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" s="7" customFormat="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="7" customFormat="1">
       <c r="A98" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" s="7" customFormat="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="7" customFormat="1">
       <c r="A99" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" s="7" customFormat="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="7" customFormat="1">
       <c r="A100" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" s="7" customFormat="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="7" customFormat="1">
       <c r="A101" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B101" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="7" customFormat="1">
+      <c r="A102" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C102" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="7" customFormat="1"/>
-    <row r="103" spans="1:6" s="7" customFormat="1"/>
-    <row r="104" spans="1:6" s="7" customFormat="1"/>
-    <row r="105" spans="1:6" s="7" customFormat="1"/>
-    <row r="106" spans="1:6" s="7" customFormat="1"/>
-    <row r="107" spans="1:6" s="7" customFormat="1"/>
-    <row r="108" spans="1:6" s="7" customFormat="1"/>
-    <row r="109" spans="1:6" s="7" customFormat="1"/>
-    <row r="110" spans="1:6" s="7" customFormat="1"/>
-    <row r="111" spans="1:6" s="7" customFormat="1"/>
-    <row r="112" spans="1:6" s="7" customFormat="1">
-      <c r="A112"/>
-      <c r="B112"/>
-      <c r="C112"/>
-      <c r="D112"/>
-      <c r="E112"/>
-      <c r="F112"/>
-    </row>
-    <row r="113" s="7" customFormat="1"/>
-    <row r="114" s="7" customFormat="1"/>
-    <row r="115" s="7" customFormat="1"/>
-    <row r="116" s="7" customFormat="1"/>
-    <row r="117" s="7" customFormat="1"/>
-    <row r="118" s="7" customFormat="1"/>
-    <row r="119" s="7" customFormat="1"/>
-    <row r="120" s="7" customFormat="1"/>
-    <row r="121" s="7" customFormat="1"/>
-    <row r="122" s="7" customFormat="1"/>
-    <row r="123" s="7" customFormat="1"/>
-    <row r="124" s="7" customFormat="1"/>
-    <row r="125" s="7" customFormat="1"/>
-    <row r="126" s="7" customFormat="1"/>
-    <row r="127" s="7" customFormat="1"/>
-    <row r="128" s="7" customFormat="1"/>
+    <row r="103" spans="1:3" s="7" customFormat="1"/>
+    <row r="104" spans="1:3" s="7" customFormat="1"/>
+    <row r="105" spans="1:3" s="7" customFormat="1"/>
+    <row r="106" spans="1:3" s="7" customFormat="1"/>
+    <row r="107" spans="1:3" s="7" customFormat="1"/>
+    <row r="108" spans="1:3" s="7" customFormat="1"/>
+    <row r="109" spans="1:3" s="7" customFormat="1"/>
+    <row r="110" spans="1:3" s="7" customFormat="1"/>
+    <row r="111" spans="1:3" s="7" customFormat="1"/>
+    <row r="112" spans="1:3" s="7" customFormat="1"/>
+    <row r="113" spans="1:6" s="7" customFormat="1">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+    </row>
+    <row r="114" spans="1:6" s="7" customFormat="1"/>
+    <row r="115" spans="1:6" s="7" customFormat="1"/>
+    <row r="116" spans="1:6" s="7" customFormat="1"/>
+    <row r="117" spans="1:6" s="7" customFormat="1"/>
+    <row r="118" spans="1:6" s="7" customFormat="1"/>
+    <row r="119" spans="1:6" s="7" customFormat="1"/>
+    <row r="120" spans="1:6" s="7" customFormat="1"/>
+    <row r="121" spans="1:6" s="7" customFormat="1"/>
+    <row r="122" spans="1:6" s="7" customFormat="1"/>
+    <row r="123" spans="1:6" s="7" customFormat="1"/>
+    <row r="124" spans="1:6" s="7" customFormat="1"/>
+    <row r="125" spans="1:6" s="7" customFormat="1"/>
+    <row r="126" spans="1:6" s="7" customFormat="1"/>
+    <row r="127" spans="1:6" s="7" customFormat="1"/>
+    <row r="128" spans="1:6" s="7" customFormat="1"/>
     <row r="129" s="7" customFormat="1"/>
     <row r="130" s="7" customFormat="1"/>
     <row r="131" s="7" customFormat="1"/>
@@ -2664,6 +2675,7 @@
     <row r="161" s="7" customFormat="1"/>
     <row r="162" s="7" customFormat="1"/>
     <row r="163" s="7" customFormat="1"/>
+    <row r="164" s="7" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2701,10 +2713,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>62</v>

--- a/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_3_resultat.xlsx
+++ b/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_3_resultat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cote d'Ivoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FF6AB6-160D-4D3C-8D44-F2257D21F453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75C38DA-DDEF-4863-AF79-7C80963CB9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -513,12 +513,6 @@
     <t>M.BORLA DIOULASSO</t>
   </si>
   <si>
-    <t xml:space="preserve">regex(.,'^(0[1-9][0-9]|100|0[0-9][1-9])$') </t>
-  </si>
-  <si>
-    <t>Le code doit être un nombre à trois chiffres entre 001 et 100</t>
-  </si>
-  <si>
     <t>d_numero</t>
   </si>
   <si>
@@ -534,10 +528,16 @@
     <t>8.b. Code du test</t>
   </si>
   <si>
-    <t>(Sept 2023) ONCHO Pre Stop - 3. Résultat V3</t>
-  </si>
-  <si>
-    <t>civ_oncho_ia_202309_3_resultat_v3</t>
+    <t xml:space="preserve">regex(.,'^(0[0-9][1-9]|0[1-9][0-9]|10[0-5])$') </t>
+  </si>
+  <si>
+    <t>Le code doit être un nombre à trois chiffres entre 001 et 105</t>
+  </si>
+  <si>
+    <t>(Sept 2023) ONCHO Pre Stop - 3. Résultat V4</t>
+  </si>
+  <si>
+    <t>civ_oncho_ia_202309_3_resultat_v4</t>
   </si>
 </sst>
 </file>
@@ -946,11 +946,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -960,7 +960,7 @@
     <col min="3" max="3" width="29.875" style="7" customWidth="1"/>
     <col min="4" max="4" width="37.875" style="7" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="35.375" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5" style="7" customWidth="1"/>
     <col min="8" max="8" width="20.375" style="7" customWidth="1"/>
     <col min="9" max="9" width="12.625" style="7" customWidth="1"/>
@@ -1183,18 +1183,18 @@
         <v>106</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -1209,10 +1209,10 @@
         <v>106</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="15"/>
@@ -1220,7 +1220,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
@@ -2686,8 +2686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
